--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65287.50602597545</v>
+        <v>12822288.17089547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65287.50602597545</v>
+        <v>12822288.17089547</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138353.4508356422</v>
+        <v>15696178.83373976</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138353.4508356422</v>
+        <v>15696178.83373976</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417182227.832757</v>
+        <v>41496391.37292773</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16122.84343388743</v>
+        <v>1037053.803002151</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30583.64973165289</v>
+        <v>1819493.022300279</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44772.58327400721</v>
+        <v>2601932.241598406</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58253.84943363</v>
+        <v>3383992.752753769</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71735.15676871905</v>
+        <v>4166120.075854138</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85216.75866675896</v>
+        <v>4948247.398954509</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98384.27524001921</v>
+        <v>6018425.630140964</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111193.60999676</v>
+        <v>7017384.297867257</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124306.175358435</v>
+        <v>7734308.552115702</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>137769.2177323462</v>
+        <v>8520967.230606573</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151232.2601062573</v>
+        <v>9307625.909097442</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>164695.3024801685</v>
+        <v>10094284.58758831</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>178158.3448540797</v>
+        <v>10880943.26607919</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>192934.3583964724</v>
+        <v>11403775.52231931</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>207796.3893196401</v>
+        <v>11813481.51040069</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -27064,7 +27064,7 @@
         <v>163</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>301</v>
